--- a/Board/bom/UPET-Wifi.xlsx
+++ b/Board/bom/UPET-Wifi.xlsx
@@ -199,19 +199,19 @@
     <t xml:space="preserve">C22790</t>
   </si>
   <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP32-C3-WROOM-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">356-ESP32C3WROOM02N4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP32-C3-WROOM-02-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2934560</t>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32-WROVER-E-N16R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356-ESP32WRVE22864PC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32-WROVER-E-N16R8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C529589</t>
   </si>
   <si>
     <t xml:space="preserve">U2</t>
@@ -335,7 +335,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -465,7 +465,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -477,7 +477,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,7 +505,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -557,7 +557,7 @@
       <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -574,13 +574,13 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -632,7 +632,7 @@
       <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -663,16 +663,16 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -681,21 +681,21 @@
       <c r="H10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -704,21 +704,21 @@
       <c r="H11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>603</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -727,7 +727,7 @@
       <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="H13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -779,7 +779,7 @@
       <c r="H14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
       <c r="H15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
